--- a/dev/GUIRenderer.xlsx
+++ b/dev/GUIRenderer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fes\Desktop\Code\Townly\dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9F5ADE-F084-40AC-84F0-86742809ED3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F5AFE4-E4CC-4516-8981-2673D47224C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16E468B2-8558-4696-BCC3-F7AA61F4273A}"/>
   </bookViews>
@@ -805,7 +805,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
